--- a/data/raw/files28/al-mi-03-05-01-431-m.xlsx
+++ b/data/raw/files28/al-mi-03-05-01-431-m.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,144 +360,144 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date and time</t>
+          <t>Sat, 18 Mar 2023 10:50:11</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>question_context (multipleChoice)</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>question4scs (multipleChoice)</t>
+          <t>Leggermente vero...3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>question5scs (multipleChoice)</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>question8scs (multipleChoice)</t>
+          <t>Moderatamente vero...5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>question7scs (multipleChoice)</t>
+          <t>Moderatamente vero...6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>question6scs (multipleChoice)</t>
+          <t>Moderatamente vero...7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>question_dec3 (multipleChoice)</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>question_sad (smiley)</t>
+          <t>0...9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>question_satisfied (smiley)</t>
+          <t>100...10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>question2scs (multipleChoice)</t>
+          <t>Leggermente vero...11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>question_dec1 (multipleChoice)</t>
+          <t>Moderatamente vero...12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>question_dec4 (multipleChoice)</t>
+          <t>Leggermente vero...13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>question_dec2 (multipleChoice)</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>question1scs (multipleChoice)</t>
+          <t>Leggermente vero...15</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>question_happiness (smiley)</t>
+          <t>100...16</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>question3scs (multipleChoice)</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>question_nervous (smiley)</t>
+          <t>0...18</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>question_emotion (multiSmiley)</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>yesnoexam (yesno)</t>
+          <t>...20</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_yes (multiSmiley)</t>
+          <t>...21</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>exam_preparation (sliderNegPos)</t>
+          <t>...22</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>grade_exp (sliderNeutralPos)</t>
+          <t>...23</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_no (multiSmiley)</t>
+          <t>...24</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_no (smiley)</t>
+          <t>...25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>real_grade (sliderNeutralPos)</t>
+          <t>...26</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_yes (smiley)</t>
+          <t>...27</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 10:50:11</t>
+          <t>Sat, 18 Mar 2023 14:23:21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,75 +507,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>86</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
         </is>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 14:23:21</t>
+          <t>Sat, 18 Mar 2023 17:29:48</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -601,34 +601,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -642,12 +642,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="P3">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 17:29:48</t>
+          <t>Sat, 18 Mar 2023 19:13:08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -717,26 +717,26 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="P4">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 19:13:08</t>
+          <t>Sat, 18 Mar 2023 21:58:38</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -774,17 +774,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I5">
@@ -815,17 +815,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -853,12 +853,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 21:58:38</t>
+          <t>Sat, 25 Mar 2023 10:47:42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -883,23 +883,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -931,18 +931,18 @@
         </is>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 10:47:42</t>
+          <t>Sat, 25 Mar 2023 14:23:48</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -957,17 +957,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -977,23 +977,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I7">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="R7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1031,12 +1031,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 14:23:48</t>
+          <t>Sat, 25 Mar 2023 17:48:20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1046,43 +1046,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I8">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1092,16 +1092,16 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
         </is>
       </c>
       <c r="R8">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 17:48:20</t>
+          <t>Sat, 25 Mar 2023 19:34:39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1150,28 +1150,28 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1209,17 +1209,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 19:34:39</t>
+          <t>Sat, 25 Mar 2023 21:34:58</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1229,48 +1229,48 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="P10">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1287,79 +1287,79 @@
         </is>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 21:34:58</t>
+          <t>Sat, 01 Apr 2023 11:43:02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="P11">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1376,38 +1376,38 @@
         </is>
       </c>
       <c r="R11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy, surprise</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 11:43:02</t>
+          <t>Sat, 01 Apr 2023 17:40:01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1422,14 +1422,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>happy, surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 17:40:01</t>
+          <t>Sat, 01 Apr 2023 19:24:51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1515,14 +1515,14 @@
         </is>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1532,12 +1532,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="P13">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1565,12 +1565,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 19:24:51</t>
+          <t>Sat, 01 Apr 2023 21:36:22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1600,18 +1600,18 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="P14">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 21:36:22</t>
+          <t>Sat, 08 Apr 2023 10:50:05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1693,19 +1693,19 @@
         </is>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1715,16 +1715,16 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P15">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="R15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1743,27 +1743,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 10:50:05</t>
+          <t>Sat, 08 Apr 2023 14:24:17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1782,46 +1782,46 @@
         </is>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16">
+        <v>88</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="P16">
         <v>100</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="P16">
-        <v>95</v>
-      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1832,22 +1832,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 14:24:17</t>
+          <t>Sat, 08 Apr 2023 17:20:38</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1871,14 +1871,14 @@
         </is>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 17:20:38</t>
+          <t>Sat, 08 Apr 2023 19:43:25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1931,43 +1931,43 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="P18">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 19:43:25</t>
+          <t>Sat, 08 Apr 2023 21:29:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2040,19 +2040,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 21:29:34</t>
+          <t>Sat, 15 Apr 2023 10:18:39</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="P20">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 10:18:39</t>
+          <t>Sat, 15 Apr 2023 14:22:25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="P21">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 14:22:25</t>
+          <t>Sat, 15 Apr 2023 17:51:26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2319,11 +2319,11 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 17:51:26</t>
+          <t>Sat, 15 Apr 2023 20:32:42</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="R23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 20:32:42</t>
+          <t>Sat, 15 Apr 2023 21:32:05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="P24">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="R24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2544,17 +2544,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 21:32:05</t>
+          <t>Sun, 16 Apr 2023 20:26:35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Molto spiacevole</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2564,17 +2564,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2583,29 +2583,29 @@
         </is>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="P25">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2622,28 +2622,47 @@
         </is>
       </c>
       <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
+        <v>96</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sun, 16 Apr 2023 20:26:35</t>
+          <t>Mon, 17 Apr 2023 20:33:20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Molto spiacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2653,17 +2672,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2672,29 +2691,29 @@
         </is>
       </c>
       <c r="I26">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2703,7 +2722,7 @@
         </is>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2711,37 +2730,34 @@
         </is>
       </c>
       <c r="R26">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-      <c r="Y26">
-        <v>96</v>
+      <c r="Z26">
+        <v>100</v>
+      </c>
+      <c r="AA26">
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mon, 17 Apr 2023 20:33:20</t>
+          <t>Sat, 22 Apr 2023 11:25:23</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2766,7 +2782,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2783,11 +2799,11 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2811,7 +2827,7 @@
         </is>
       </c>
       <c r="P27">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2821,32 +2837,16 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>happy</t>
         </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z27">
-        <v>100</v>
-      </c>
-      <c r="AA27">
-        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 11:25:23</t>
+          <t>Sat, 22 Apr 2023 14:14:59</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2885,14 +2885,14 @@
         </is>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="P28">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2935,22 +2935,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 14:14:59</t>
+          <t>Sat, 22 Apr 2023 17:48:58</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Totalmente vero</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2974,14 +2974,14 @@
         </is>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="P29">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3024,77 +3024,77 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 17:48:58</t>
+          <t>Sat, 22 Apr 2023 19:13:19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>95</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Totalmente vero</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>56</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
       <c r="P30">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 19:13:19</t>
+          <t>Sat, 22 Apr 2023 21:25:08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3152,14 +3152,14 @@
         </is>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Totalmente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="P31">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="R31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3202,12 +3202,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 21:25:08</t>
+          <t>Sat, 29 Apr 2023 10:49:31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3258,12 +3258,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="P32">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3291,22 +3291,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 10:49:31</t>
+          <t>Sat, 29 Apr 2023 15:14:12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="I33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="P33">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3369,18 +3369,18 @@
         </is>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 15:14:12</t>
+          <t>Sat, 29 Apr 2023 18:12:22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="P34">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3458,18 +3458,18 @@
         </is>
       </c>
       <c r="R34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 18:12:22</t>
+          <t>Sat, 29 Apr 2023 20:20:33</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="P35">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 20:20:33</t>
+          <t>Sat, 29 Apr 2023 21:29:28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3628,11 +3628,11 @@
         </is>
       </c>
       <c r="P36">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R36">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 21:29:28</t>
+          <t>Sat, 06 May 2023 14:05:21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3686,19 +3686,19 @@
         </is>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3708,35 +3708,35 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="P37">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 14:05:21</t>
+          <t>Sat, 06 May 2023 18:02:54</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3766,28 +3766,28 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J38">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3802,11 +3802,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P38">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3814,18 +3814,18 @@
         </is>
       </c>
       <c r="R38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 18:02:54</t>
+          <t>Sat, 06 May 2023 20:10:28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3864,29 +3864,29 @@
         </is>
       </c>
       <c r="I39">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 20:10:28</t>
+          <t>Sat, 06 May 2023 21:22:35</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3929,12 +3929,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="R40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 21:22:35</t>
+          <t>Sat, 13 May 2023 10:54:09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4018,48 +4018,48 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J41">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 10:54:09</t>
+          <t>Sat, 13 May 2023 14:25:59</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4102,17 +4102,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4122,33 +4122,33 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4170,43 +4170,43 @@
         </is>
       </c>
       <c r="R42">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 14:25:59</t>
+          <t>Sat, 13 May 2023 17:45:42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4216,28 +4216,28 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4263,14 +4263,14 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 17:45:42</t>
+          <t>Sat, 20 May 2023 10:38:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4280,166 +4280,77 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J44">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="P44">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Sat, 20 May 2023 10:38:30</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Piacevole</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="I45">
-        <v>9</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="P45">
-        <v>100</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45" t="inlineStr">
         <is>
           <t>happy, surprise</t>
         </is>
